--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3665.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3665.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.463325358265835</v>
+        <v>0.9227734804153442</v>
       </c>
       <c r="B1">
-        <v>2.578381412668956</v>
+        <v>1.101991057395935</v>
       </c>
       <c r="C1">
-        <v>8.213471091991766</v>
+        <v>0.9133025407791138</v>
       </c>
       <c r="D1">
-        <v>2.11732093319614</v>
+        <v>0.8500090837478638</v>
       </c>
       <c r="E1">
-        <v>0.9128597651916908</v>
+        <v>0.8839741945266724</v>
       </c>
     </row>
   </sheetData>
